--- a/ig/nr-update/StructureDefinition-cds-organization-orga-int.xlsx
+++ b/ig/nr-update/StructureDefinition-cds-organization-orga-int.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T13:43:56+00:00</t>
+    <t>2024-02-07T14:01:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
